--- a/biology/Botanique/Maihuenia/Maihuenia.xlsx
+++ b/biology/Botanique/Maihuenia/Maihuenia.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Maihuenia est un genre de cactus, plante de la famille des Cactaceae. C'est le seul genre de la sous-famille des Maihuenioideae.
 Les espèces sont trouvées en Amérique du Sud (nord-ouest et sud de l'Argentine, centre et sud du Chili).
@@ -512,7 +524,9 @@
           <t>Liste des espèces</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Maihuenia patagonica
 Maihuenia poeppigii (type)</t>
@@ -543,7 +557,9 @@
           <t>Synonymie</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t>Pereskia subg. Maihuenia Phil. ex F.A.C.Weber in Bois, Dict. Hort. 2: 938 (1898).
 Maihuenia Phil., Gartenflora 32: 260 (1883), nom. nud.
@@ -576,7 +592,9 @@
           <t>Publications originales</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
         <is>
           <t>P. Fearn, Rev. Origins Cactus &amp; Search for System of Classif no 67, 1996.
 Karl Moritz Schumann, Gartenflora no 260, 1883.</t>
